--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -3535,7 +3535,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>潘欣悦,匡乐萱</t>
+          <t>匡乐萱,潘欣悦</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,71 +468,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>天安@1047</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,56 +547,56 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,88 +611,88 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -707,24 +707,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>田野,宋彦廷,程子萌,郭熙来,史瑞嘉,黄予谦,袁浩洋,朱倍均,徐子乔</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -739,120 +739,120 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>陆奕静,邓熙雯,张岳麓,陆思橙,陈博扬,袁浩洋,陈杨</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,167 +867,167 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>田野,宋彦廷,程子萌,郭熙来,史瑞嘉,黄予谦,袁浩洋,朱倍均,徐子乔</t>
+          <t>汪欣媛,侯征,马佳乐,胡畔语,王云重,朱晨铭</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1037,46 +1037,46 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1091,56 +1091,56 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>田野,宋彦廷,程子萌,郭熙来,史瑞嘉,黄予谦,袁浩洋,朱倍均,徐子乔</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1155,344 +1155,344 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2117</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>陆奕静,邓熙雯,张岳麓,陆思橙,陈博扬,袁浩洋,陈杨</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2106</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>眭子诚,魏莱,盛子瑜,宋佳泽</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>眭子诚,魏莱,盛子瑜,宋佳泽</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>田野,宋彦廷,程子萌,郭熙来,史瑞嘉,黄予谦,袁浩洋,朱倍均,徐子乔</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2106</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>陆奕静,邓熙雯,张岳麓,陆思橙,陈博扬,袁浩洋,陈杨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2112</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2104</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>眭子诚,魏莱,盛子瑜,宋佳泽</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1507,56 +1507,56 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>眭子诚,魏莱,盛子瑜,宋佳泽</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1571,88 +1571,88 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>眭子诚,魏莱,盛子瑜,宋佳泽</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>田野,宋彦廷,程子萌,郭熙来,史瑞嘉,黄予谦,袁浩洋,朱倍均,徐子乔</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1667,56 +1667,56 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>陆奕静,邓熙雯,张岳麓,陆思橙,陈博扬,袁浩洋,陈杨</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2103</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1731,71 +1731,71 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1805,158 +1805,162 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1968,7 +1972,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1981,406 +1985,442 @@
           <t>18:10:00</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>周静萱</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1019</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1060</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1066</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽,徐翰唐,徐一心</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2393,50 +2433,58 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2451,168 +2499,184 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2627,24 +2691,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2657,134 +2721,154 @@
           <t>18:10:00</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>陶玺泽,徐翰唐,徐一心</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>陈陆宇阳,王廷月,龚宸,何逸轩,李沐尘,顾轩铭,王智为</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>国金@2116</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>太阳城@409</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2799,7 +2883,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2809,14 +2893,14 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2829,110 +2913,122 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>朱奕鹏,钱俊宇,杜欣,王瑀璟,张子衿</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2945,22 +3041,26 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2975,24 +3075,24 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3007,39 +3107,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>朱奕鹏,钱俊宇,杜欣,王瑀璟,张子衿</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3049,78 +3149,74 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3145,74 +3241,74 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3227,24 +3323,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3260,51 +3356,51 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1116</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3319,7 +3415,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3329,42 +3425,46 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3379,131 +3479,123 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3513,106 +3605,106 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>匡乐萱,潘欣悦</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3627,7 +3719,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3637,74 +3729,74 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>潘欣悦,匡乐萱</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3719,24 +3811,24 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3751,7 +3843,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3761,29 +3853,29 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>潘欣悦,匡乐萱</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3793,89 +3885,89 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3885,29 +3977,29 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>匡乐萱,潘欣悦</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3917,74 +4009,74 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>胡予萱</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3999,7 +4091,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4009,14 +4101,14 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4031,7 +4123,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4041,61 +4133,61 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4105,46 +4197,42 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4159,7 +4247,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4169,37 +4257,4357 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>王振宁</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>天安@904</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>天安@909</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>国金@2107</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>天安@1047</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>天安@946</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>天安@1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>天安@1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>国金@2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>网络授课</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>天安@1041</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>天安@1042</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>天安@1118</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>国金@2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>天安@939</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>天安@1102</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>天安@1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>天安@952</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>天安@1003</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>天安@1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>天安@1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>天安@1029</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>天安@1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>天安@946</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>潘欣悦,匡乐萱</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-04-10</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>潘欣悦,匡乐萱</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>潘欣悦,匡乐萱</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-04-24</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>匡乐萱,潘欣悦</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
           <t>2026-06-13</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-06-20</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4981,17 +4981,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5001,14 +5001,14 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5040,22 +5040,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5077,27 +5077,23 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -5109,23 +5105,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -5137,45 +5133,49 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
@@ -5197,17 +5197,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5229,59 +5229,59 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5293,17 +5293,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5313,14 +5313,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1041</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>天安@1042</t>
         </is>
       </c>
     </row>
@@ -5357,17 +5357,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5377,67 +5377,67 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>汤子妍</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2102</t>
         </is>
       </c>
     </row>
@@ -5449,55 +5449,55 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>方皓霆</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
@@ -5509,17 +5509,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5529,7 +5529,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5541,62 +5541,62 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5628,22 +5628,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5653,29 +5653,29 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5685,7 +5685,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5697,27 +5697,23 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -5729,51 +5725,55 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5785,17 +5785,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
@@ -5817,81 +5817,81 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5901,14 +5901,14 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5933,29 +5933,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5977,27 +5977,23 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6009,51 +6005,55 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -6065,81 +6065,81 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6149,46 +6149,46 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6203,24 +6203,24 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6245,14 +6245,14 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6267,41 +6267,37 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6309,7 +6305,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6321,30 +6317,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6357,7 +6353,11 @@
           <t>18:10:00</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -6365,63 +6365,59 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6429,7 +6425,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6441,51 +6437,51 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6497,23 +6493,23 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6525,15 +6521,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -6541,39 +6541,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6585,19 +6585,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6605,7 +6601,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6617,51 +6613,55 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -6673,27 +6673,23 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6705,51 +6701,51 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6761,51 +6757,55 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -6817,27 +6817,23 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6849,51 +6845,55 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -6905,27 +6905,23 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6937,43 +6933,47 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E210" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
@@ -6993,19 +6993,15 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -7013,35 +7009,35 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7053,51 +7049,51 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7109,51 +7105,55 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7165,27 +7165,23 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7197,51 +7193,55 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7253,34 +7253,30 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7308,20 +7304,24 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E222" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7341,34 +7341,34 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7400,71 +7400,71 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7479,17 +7479,17 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -7501,47 +7501,47 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E229" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7549,14 +7549,14 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7571,17 +7571,17 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -7593,47 +7593,47 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E232" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7641,14 +7641,14 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7663,17 +7663,17 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7685,47 +7685,47 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7733,14 +7733,14 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7755,17 +7755,17 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7777,47 +7777,47 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E238" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7825,14 +7825,14 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -7847,17 +7847,17 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7869,111 +7869,107 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>潘欣悦,匡乐萱</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -7981,61 +7977,61 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>潘欣悦,匡乐萱</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8045,14 +8041,14 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8080,17 +8076,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8105,14 +8101,14 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8144,52 +8140,52 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>潘欣悦,匡乐萱</t>
-        </is>
-      </c>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E250" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -8197,46 +8193,46 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8268,22 +8264,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>匡乐萱,潘欣悦</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8293,42 +8289,46 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8343,34 +8343,34 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -8385,14 +8385,14 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8417,24 +8417,24 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -8448,166 +8448,6 @@
         </is>
       </c>
       <c r="F258" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>2026-05-23</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>2026-05-30</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>2026-06-06</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>2026-06-13</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,35 +3188,39 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-21</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3231,7 +3235,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3248,7 +3252,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3263,24 +3267,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3293,22 +3297,26 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3323,24 +3331,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3353,32 +3361,36 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>天安@1116</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3400,22 +3412,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3425,14 +3437,14 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3464,7 +3476,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3479,52 +3491,56 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3537,22 +3553,26 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3565,37 +3585,41 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>钱佳豪</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3605,61 +3629,61 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3669,14 +3693,14 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3689,22 +3713,26 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3736,39 +3764,39 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>胡予萱</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3781,86 +3809,90 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3875,7 +3907,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3885,42 +3917,46 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3952,22 +3988,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3977,14 +4013,14 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-11-23</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3999,7 +4035,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4009,89 +4045,93 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>天安@1106</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>胡予萱</t>
+          <t>王振宁</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4101,29 +4141,29 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4133,46 +4173,46 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>数学</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4187,7 +4227,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4197,42 +4237,46 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-11-16</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4264,22 +4308,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4289,14 +4333,14 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4311,7 +4355,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4321,42 +4365,46 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@909</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2107</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-11-23</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4388,22 +4436,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4413,89 +4461,93 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1047</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>王振宁</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4505,29 +4557,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4537,29 +4589,29 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4569,29 +4621,29 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4601,42 +4653,46 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4649,7 +4705,11 @@
           <t>18:10:00</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -4657,29 +4717,29 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4696,22 +4756,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4721,29 +4781,29 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1041</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4753,29 +4813,29 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1042</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4785,85 +4845,93 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>天安@909</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>国金@2102</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4873,14 +4941,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>国金@2107</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4912,22 +4980,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4937,61 +5005,61 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>天安@1047</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5001,29 +5069,29 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5033,29 +5101,29 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5065,85 +5133,93 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5153,29 +5229,29 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5185,14 +5261,14 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5207,7 +5283,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5217,93 +5293,93 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5313,14 +5389,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5335,7 +5411,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5345,74 +5421,78 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5427,7 +5507,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5437,27 +5517,31 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -5465,91 +5549,95 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -5557,14 +5645,14 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5579,24 +5667,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5611,7 +5699,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5621,29 +5709,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5653,14 +5741,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5685,14 +5773,14 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5705,50 +5793,58 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5763,7 +5859,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5773,93 +5869,93 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5869,78 +5965,78 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5955,7 +6051,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5965,27 +6061,31 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -5993,42 +6093,46 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6043,56 +6147,56 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6107,39 +6211,39 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6149,14 +6253,14 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6181,14 +6285,14 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6220,7 +6324,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6235,24 +6339,24 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6267,24 +6371,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6297,7 +6401,11 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6305,74 +6413,78 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6387,37 +6499,41 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6425,130 +6541,142 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>国金</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6563,80 +6691,88 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr"/>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6660,1794 +6796,6 @@
         </is>
       </c>
       <c r="F199" t="inlineStr">
-        <is>
-          <t>天安@1029</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>天安@907</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>天安@907</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>天安@907</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>2026-02-14</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>天安@1104</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>天安@1130</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>2026-02-15</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>天安@1109</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>2026-02-21</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>天安@1104</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>2026-02-22</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>天安@1104</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>天安@1104</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>国金@2118</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>2026-02-28</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>2026-03-01</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>AP微积分</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>天安@946</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>2026-03-06</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>国金@2118</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>2026-03-07</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>太阳城@415</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>2026-03-07</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>2026-03-13</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>国金@2118</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>2026-03-14</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>太阳城@415</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>2026-03-14</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>天安@1071</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>2026-03-20</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>国金@2118</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>2026-03-21</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>2026-03-21</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>2026-03-27</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>国金@2118</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>2026-03-28</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>2026-03-28</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>2026-04-03</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>国金</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>2026-04-04</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>2026-04-04</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>2026-04-10</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>国金</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>2026-04-11</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>2026-04-11</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>2026-04-17</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>国金</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>2026-04-18</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2026-04-18</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2026-04-24</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>国金</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2026-04-25</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2026-04-25</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>18:30:00</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>天安@1058</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2026-05-01</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>AP计算机</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>国金</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2026-05-02</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2026-05-09</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2026-05-16</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2026-05-23</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>2026-05-30</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>2026-06-06</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>2026-06-13</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3188,39 +3188,35 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-27</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-28</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3235,7 +3231,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3252,7 +3248,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3267,24 +3263,24 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>钱佳豪</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-03</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3297,26 +3293,22 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>钱佳豪</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3331,24 +3323,24 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3361,36 +3353,32 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>钱佳豪</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1116</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3412,22 +3400,22 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-09</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3437,14 +3425,14 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3476,7 +3464,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3491,56 +3479,52 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3553,26 +3537,22 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>钱佳豪</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3585,41 +3565,37 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>钱佳豪</t>
-        </is>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A-LEVEL计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3629,61 +3605,61 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3693,14 +3669,14 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3713,26 +3689,22 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>汤子妍</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-11-01</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3764,39 +3736,39 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-11-02</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>胡予萱</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-11-07</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3809,90 +3781,86 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>汤子妍</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-11-08</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-11-09</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>数学</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-11-15</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3907,7 +3875,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3917,46 +3885,42 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-11-16</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>许蔚然</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-11-17</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3988,22 +3952,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-11-22</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4013,14 +3977,14 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-11-23</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4035,7 +3999,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4045,93 +4009,89 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-11-29</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>王振宁</t>
+          <t>胡予萱</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4141,29 +4101,29 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-12-10</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4173,46 +4133,46 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-11-09</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-12-13</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -4227,7 +4187,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4237,46 +4197,42 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>10:00:00</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>袁芷澜</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-12-14</t>
+          <t>2025-11-16</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -4308,22 +4264,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4333,14 +4289,14 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4355,7 +4311,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4365,46 +4321,42 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>天安@909</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-12-20</t>
+          <t>2025-11-22</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>方皓霆</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>国金@2107</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-11-23</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4436,22 +4388,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4461,93 +4413,89 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>天安@1047</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>王振宁</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-11-29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>龙一夫</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4557,29 +4505,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-10</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4589,29 +4537,29 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-12</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -4621,29 +4569,29 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4653,46 +4601,42 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>许蔚然</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-12-13</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4705,11 +4649,7 @@
           <t>18:10:00</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -4717,29 +4657,29 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4756,22 +4696,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-12-14</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4781,29 +4721,29 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-16</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4813,29 +4753,29 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4845,93 +4785,85 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@909</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>方皓霆</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>金明珺</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-12-20</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4941,14 +4873,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2107</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4980,22 +4912,22 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5005,61 +4937,61 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1047</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2025-12-21</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-12-23</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5069,29 +5001,29 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-12-24</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,29 +5033,29 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5133,93 +5065,85 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>许蔚然</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,29 +5153,29 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5261,14 +5185,14 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5283,7 +5207,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,93 +5217,93 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2025-12-30</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5389,14 +5313,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1041</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5411,7 +5335,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>龙一夫</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5421,78 +5345,74 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1042</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2025-12-31</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5507,7 +5427,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5517,31 +5437,27 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>国金@2102</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -5549,95 +5465,91 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>AP微积分</t>
@@ -5645,14 +5557,14 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5667,24 +5579,24 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5699,7 +5611,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,29 +5621,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,14 +5653,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5773,14 +5685,14 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5793,58 +5705,50 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>司凝</t>
-        </is>
-      </c>
+      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5859,7 +5763,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5869,93 +5773,93 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5965,78 +5869,78 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6051,7 +5955,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,31 +5965,27 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6093,46 +5993,42 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>管子栋</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -6147,56 +6043,56 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6211,39 +6107,39 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,14 +6149,14 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6285,14 +6181,14 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6324,7 +6220,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6339,24 +6235,24 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,24 +6267,24 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6401,11 +6297,7 @@
           <t>15:50:00</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6413,78 +6305,74 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6499,41 +6387,37 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>许宸铭</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>AP计算机</t>
@@ -6541,142 +6425,130 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6691,111 +6563,1891 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>天安@1029</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>天安@1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>天安@946</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-04-10</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-04-24</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,71 +468,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>天安@1047</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-12-21</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -547,56 +547,56 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-12-23</t>
+          <t>2025-07-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -611,56 +611,56 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -675,216 +675,216 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-07-06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-07</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-07-08</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -899,56 +899,56 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-07-09</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -963,24 +963,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -995,56 +995,56 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>天安@1101</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2025-07-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1059,56 +1059,56 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>李逸舟</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1123,56 +1123,56 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2025-07-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2117</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1187,56 +1187,56 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2025-07-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2025-07-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1251,66 +1251,66 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2106</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1320,34 +1320,34 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1357,78 +1357,78 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2106</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2112</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>国金@2104</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1443,162 +1443,162 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2025-07-24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1608,98 +1608,98 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>数学</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1055</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>季泽曈</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2025-07-31</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陈泽宇</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1709,78 +1709,78 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2103</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2025-08-04</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1795,130 +1795,130 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2025-08-09</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2025-08-10</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1940,7 +1940,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2025-08-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1960,19 +1960,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2025-08-12</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1987,66 +1987,66 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2025-08-13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>周静萱</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1019</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2025-08-14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2056,29 +2056,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2088,19 +2088,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1060</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2120,19 +2120,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1066</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2152,93 +2152,93 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2248,29 +2248,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2280,61 +2280,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2344,29 +2344,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2376,29 +2376,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2408,29 +2408,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2025-08-18</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2440,61 +2440,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2504,19 +2504,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2536,19 +2536,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2563,24 +2563,24 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2600,19 +2600,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2025-08-20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2632,61 +2632,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2696,29 +2696,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2025-08-21</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2728,29 +2728,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2025-08-22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2760,19 +2760,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>计算机</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1062</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2787,56 +2787,56 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2116</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2025-08-28</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2861,78 +2861,78 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@409</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2025-09-06</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2025-09-07</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2957,14 +2957,14 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2025-09-08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2984,98 +2984,98 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2025-09-13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2025-09-14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3107,152 +3107,152 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2025-09-20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2025-09-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2025-09-27</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2025-09-28</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3267,216 +3267,216 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1116</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2025-10-03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2025-10-04</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3491,34 +3491,34 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2025-10-05</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3528,147 +3528,147 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2025-10-09</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3693,24 +3693,24 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3720,93 +3720,93 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3816,51 +3816,51 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>钱佳豪</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL计算机</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3885,78 +3885,78 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3981,29 +3981,29 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4013,29 +4013,29 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4045,14 +4045,14 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -4067,71 +4067,71 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1106</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2025-11-02</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>胡予萱</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2025-11-07</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4141,14 +4141,14 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2025-11-08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4173,37 +4173,4517 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>陶玺泽</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>天安@940</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>王振宁</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>天安@904</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>天安@909</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>国金@2107</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>天安@1047</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>天安@946</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>天安@1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>天安@1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>天安@1064</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>国金@2126</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>网络授课</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>天安@1041</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>龙一夫</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>天安@1042</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-12-31</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>天安@1118</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>方皓霆</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>国金@2102</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>天安@939</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2026-01-04</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>天安@1102</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>天安@1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>天安@906</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>许蔚然</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>汤子妍</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>天安@1129</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>天安@1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>天安@952</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2026-02-01</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>天安@1123</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>天安@1003</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2026-02-08</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>天安@1016</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>国金@2119</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>天安@1111</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>天安@1029</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>天安@907</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>天安@1130</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2026-02-15</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>天安@1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2026-02-22</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>天安@1104</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2026-02-28</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2026-03-01</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>天安@946</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2026-03-06</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2026-03-07</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2026-03-13</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>管子栋</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>太阳城@415</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2026-03-14</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>天安@1071</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2026-03-20</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2026-03-21</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2026-03-27</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2026-03-28</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2026-04-10</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2026-04-11</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2026-04-17</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2026-04-18</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2026-04-24</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>国金</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D258" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F258"/>
+  <dimension ref="A1:F257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5076,22 +5076,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-12-24</t>
+          <t>2025-12-27</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5113,27 +5113,27 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5160,12 +5160,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -5177,49 +5177,49 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-12-27</t>
+          <t>2025-12-28</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>网络授课</t>
         </is>
       </c>
     </row>
@@ -5241,17 +5241,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5273,17 +5273,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1128</t>
         </is>
       </c>
     </row>
@@ -5561,17 +5561,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5593,66 +5593,66 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5684,22 +5684,22 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -5709,29 +5709,29 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5753,27 +5753,27 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5800,44 +5800,44 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
@@ -5881,81 +5881,81 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5965,14 +5965,14 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5997,29 +5997,29 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -6041,27 +6041,27 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6073,12 +6073,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6088,44 +6088,44 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -6137,81 +6137,81 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6221,46 +6221,46 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6275,24 +6275,24 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6317,14 +6317,14 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -6339,39 +6339,39 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6393,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6408,19 +6408,19 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6445,61 +6445,61 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6521,12 +6521,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6536,29 +6536,29 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6585,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6600,12 +6600,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6617,17 +6617,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,39 +6637,39 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6713,12 +6713,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6728,44 +6728,44 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -6777,27 +6777,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6809,12 +6809,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6824,29 +6824,29 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6873,12 +6873,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6888,44 +6888,44 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -6937,27 +6937,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,44 +6984,44 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7033,27 +7033,27 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,34 +7080,34 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
@@ -7129,17 +7129,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -7149,24 +7149,24 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,29 +7208,29 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7257,12 +7257,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,44 +7272,44 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7321,27 +7321,27 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
@@ -7353,12 +7353,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7368,44 +7368,44 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7417,34 +7417,34 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7476,22 +7476,22 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7513,34 +7513,34 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7572,71 +7572,71 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7651,17 +7651,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -7673,49 +7673,49 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,14 +7725,14 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7747,17 +7747,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -7769,49 +7769,49 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,14 +7821,14 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7843,17 +7843,17 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7865,49 +7865,49 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,14 +7917,14 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7939,17 +7939,17 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7961,49 +7961,49 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,14 +8013,14 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8035,17 +8035,17 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8057,49 +8057,49 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,17 +8131,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8153,49 +8153,49 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,39 +8205,39 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8249,49 +8249,49 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,17 +8323,17 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8345,49 +8345,49 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8397,56 +8397,56 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>国金</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -8468,17 +8468,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8532,17 +8532,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -8557,14 +8557,14 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8652,38 +8652,6 @@
         </is>
       </c>
       <c r="F257" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F257"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5209,17 +5209,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>网络授课</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -5241,17 +5241,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5261,14 +5261,14 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1128</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-01</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5283,103 +5283,103 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>天安@1128</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-12-28</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2102</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-02</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1071</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-12-30</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5389,14 +5389,14 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>天安@1041</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>龙一夫</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5421,14 +5421,14 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>天安@1042</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-12-31</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5443,56 +5443,56 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2026-01-01</t>
+          <t>2026-01-03</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1030</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-04</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5517,46 +5517,46 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>国金@2102</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2026-01-02</t>
+          <t>2026-01-06</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-07</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5581,142 +5581,142 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-01-03</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2026-01-04</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2026-01-06</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5763,24 +5763,24 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5805,14 +5805,14 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5837,14 +5837,14 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5869,46 +5869,46 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5933,14 +5933,14 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5955,56 +5955,56 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,14 +6029,14 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -6051,24 +6051,24 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,14 +6093,14 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -6132,39 +6132,39 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -6179,39 +6179,39 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -6221,46 +6221,46 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6297,17 +6297,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
@@ -6361,27 +6361,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6393,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6408,19 +6408,19 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -6445,14 +6445,14 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,88 +6467,88 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6573,14 +6573,14 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6617,49 +6617,49 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,24 +6669,24 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6696,34 +6696,34 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6733,14 +6733,14 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6755,24 +6755,24 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6797,14 +6797,14 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6829,56 +6829,56 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6888,51 +6888,51 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6957,14 +6957,14 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7021,14 +7021,14 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7053,14 +7053,14 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7085,56 +7085,56 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7144,29 +7144,29 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7176,34 +7176,34 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -7213,24 +7213,24 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,29 +7240,29 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,51 +7272,51 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7341,14 +7341,14 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7380,7 +7380,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7412,7 +7412,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7437,24 +7437,24 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,19 +7464,19 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7491,24 +7491,24 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7523,24 +7523,24 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -7555,103 +7555,103 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -7661,46 +7661,46 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7732,7 +7732,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7789,14 +7789,14 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1071</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7811,24 +7811,24 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7843,71 +7843,71 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,14 +7917,14 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,29 +7949,29 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,14 +7981,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8003,88 +8003,88 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8180,39 +8180,39 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,71 +8227,71 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,29 +8333,29 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8365,14 +8365,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8387,56 +8387,56 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8461,14 +8461,14 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8483,34 +8483,34 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8532,39 +8532,39 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,14 +8589,14 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8611,47 +8611,495 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>班课</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>天安@1058</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2026-04-26</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>天安@1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5588,7 +5588,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2121</t>
         </is>
       </c>
     </row>
@@ -5625,27 +5625,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1030</t>
         </is>
       </c>
     </row>
@@ -5657,27 +5657,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -5689,91 +5689,91 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -5785,49 +5785,49 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5837,61 +5837,61 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5901,14 +5901,14 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5933,14 +5933,14 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5955,71 +5955,71 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,93 +6061,93 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,125 +6157,125 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,78 +6285,78 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-23</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,14 +6381,14 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -6403,194 +6403,194 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6600,83 +6600,83 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,61 +6701,61 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,24 +6765,24 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6792,93 +6792,93 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6888,34 +6888,34 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,29 +6925,29 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6957,24 +6957,24 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,93 +6984,93 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,51 +7080,51 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7181,56 +7181,56 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,29 +7240,29 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,51 +7272,51 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7380,49 +7380,49 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,29 +7432,29 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,51 +7464,51 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7540,17 +7540,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7560,19 +7560,19 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -7587,24 +7587,24 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7619,103 +7619,103 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,61 +7725,61 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7789,29 +7789,29 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,93 +7821,93 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,14 +7917,14 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -7939,7 +7939,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,29 +7949,29 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,14 +7981,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,29 +8013,29 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8045,14 +8045,14 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,29 +8077,29 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,29 +8141,29 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8173,14 +8173,14 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,29 +8205,29 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8237,14 +8237,14 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,7 +8259,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8269,29 +8269,29 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,29 +8333,29 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8365,14 +8365,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8397,29 +8397,29 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,14 +8429,14 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8461,29 +8461,29 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,29 +8525,29 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8557,14 +8557,14 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,29 +8589,29 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,14 +8621,14 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8653,29 +8653,29 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,14 +8685,14 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8717,29 +8717,29 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,29 +8749,29 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,46 +8781,46 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8852,54 +8852,54 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,14 +8909,14 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8931,24 +8931,24 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8980,22 +8980,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9005,14 +9005,14 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9037,14 +9037,14 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,37 +9069,229 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5556,22 +5556,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2026-01-07</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -5581,29 +5581,29 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2121</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-10</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>国金@2121</t>
+          <t>天安@1030</t>
         </is>
       </c>
     </row>
@@ -5625,27 +5625,27 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>天安@1030</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -5657,27 +5657,27 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -5689,91 +5689,91 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1102</t>
         </is>
       </c>
     </row>
@@ -5785,49 +5785,49 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-13</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5837,61 +5837,61 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5901,29 +5901,29 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5933,29 +5933,29 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5965,61 +5965,61 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,93 +6061,93 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,29 +6157,29 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,93 +6189,93 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,93 +6285,93 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -6381,110 +6381,110 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6499,103 +6499,103 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,103 +6605,103 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -7875,39 +7875,39 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,61 +7917,61 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,14 +7981,14 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8003,7 +8003,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8013,29 +8013,29 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8045,14 +8045,14 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,29 +8077,29 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,29 +8141,29 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8173,78 +8173,78 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,24 +8259,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,56 +8291,56 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8372,7 +8372,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8436,7 +8436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8468,22 +8468,22 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8493,46 +8493,46 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8547,24 +8547,24 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,103 +8579,103 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,110 +8685,110 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8820,7 +8820,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8852,86 +8852,86 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8941,29 +8941,29 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8973,78 +8973,78 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,46 +9069,46 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9140,39 +9140,39 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9197,46 +9197,46 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9261,37 +9261,389 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
+          <t>2026-05-01</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>国金@2118</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>天安@1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5684,39 +5684,39 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>方皓霆</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -5741,14 +5741,14 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2126</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-14</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5773,46 +5773,46 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>天安@1102</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2026-01-11</t>
+          <t>2026-01-16</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2026-01-13</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5837,46 +5837,46 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>方皓霆</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>国金@2126</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-14</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5901,61 +5901,61 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2026-01-16</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5965,61 +5965,61 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-17</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,93 +6061,93 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,29 +6157,29 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,14 +6189,14 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -6211,56 +6211,56 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6292,7 +6292,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -6307,152 +6307,152 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,66 +6467,66 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6541,56 +6541,56 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6605,14 +6605,14 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,61 +6637,61 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,46 +6701,46 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6765,14 +6765,14 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6809,49 +6809,49 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,24 +6861,24 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6888,34 +6888,34 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,14 +6925,14 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6947,24 +6947,24 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7033,34 +7033,34 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7092,7 +7092,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7124,49 +7124,49 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7193,27 +7193,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7225,17 +7225,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -7245,39 +7245,39 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7289,27 +7289,27 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7336,34 +7336,34 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7373,7 +7373,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
@@ -7385,17 +7385,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -7405,24 +7405,24 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,29 +7464,29 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7528,44 +7528,44 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7577,27 +7577,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7624,12 +7624,12 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7641,27 +7641,27 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7828,32 +7828,32 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7865,49 +7865,49 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,24 +7917,24 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7944,34 +7944,34 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -7981,46 +7981,46 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8035,71 +8035,71 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,71 +8131,71 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,14 +8205,14 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8244,7 +8244,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8276,7 +8276,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,29 +8301,29 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,29 +8333,29 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8365,14 +8365,14 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -8404,7 +8404,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8436,7 +8436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8468,7 +8468,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8532,7 +8532,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8564,7 +8564,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8628,54 +8628,54 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,46 +8685,46 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8739,216 +8739,216 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8963,56 +8963,56 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9027,56 +9027,56 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9108,7 +9108,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9140,135 +9140,135 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -9283,71 +9283,71 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9357,46 +9357,46 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9428,54 +9428,54 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9485,29 +9485,29 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9517,14 +9517,14 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -9549,14 +9549,14 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9571,7 +9571,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9581,24 +9581,24 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9613,37 +9613,197 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B293" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C293" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="D293" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5817,17 +5817,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5837,7 +5837,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -5849,59 +5849,59 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-17</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -5913,27 +5913,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
@@ -5945,44 +5945,44 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-18</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5997,29 +5997,29 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
@@ -6073,17 +6073,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6105,59 +6105,59 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6169,17 +6169,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,71 +6189,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6297,27 +6297,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6344,44 +6344,44 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6393,27 +6393,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6425,34 +6425,34 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,34 +6467,34 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6509,61 +6509,61 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -6573,24 +6573,24 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6612,22 +6612,22 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,39 +6637,39 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,71 +6701,71 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -6777,27 +6777,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6809,91 +6809,91 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -6905,76 +6905,76 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
@@ -7001,27 +7001,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -7033,17 +7033,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7053,24 +7053,24 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,12 +7080,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7112,44 +7112,44 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7161,27 +7161,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7225,27 +7225,27 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -8404,39 +8404,39 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,17 +8451,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -8473,27 +8473,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,46 +8525,46 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,71 +8579,71 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -8665,81 +8665,81 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,14 +8749,14 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,61 +8781,61 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -8857,66 +8857,66 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8931,39 +8931,39 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8973,14 +8973,14 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9005,24 +9005,24 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9044,54 +9044,54 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9101,14 +9101,14 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9133,24 +9133,24 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9172,22 +9172,22 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,238 +9197,238 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9443,88 +9443,88 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -9556,54 +9556,54 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9613,88 +9613,88 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -9709,29 +9709,29 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9741,69 +9741,325 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C301" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
+      <c r="D301" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5913,27 +5913,27 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
@@ -5945,44 +5945,44 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许蔚然</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2026-01-18</t>
+          <t>2026-01-20</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5997,29 +5997,29 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-20</t>
+          <t>2026-01-21</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>许蔚然</t>
+          <t>汤子妍</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,29 +6029,29 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6073,17 +6073,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -6105,59 +6105,59 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6169,17 +6169,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,71 +6189,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6297,27 +6297,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6344,44 +6344,44 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6393,27 +6393,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
@@ -6425,34 +6425,34 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -6489,76 +6489,76 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6573,29 +6573,29 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6617,17 +6617,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,14 +6637,14 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6733,39 +6733,39 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6777,27 +6777,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
@@ -6809,12 +6809,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6841,17 +6841,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,39 +6861,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6905,17 +6905,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6952,44 +6952,44 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -7001,27 +7001,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7033,12 +7033,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7048,29 +7048,29 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,12 +7080,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7112,44 +7112,44 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7161,27 +7161,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,44 +7208,44 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7257,27 +7257,27 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7304,34 +7304,34 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
@@ -7353,17 +7353,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -7373,24 +7373,24 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,29 +7432,29 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7496,44 +7496,44 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7545,27 +7545,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7609,59 +7609,59 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7673,34 +7673,34 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7732,22 +7732,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7769,27 +7769,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7801,59 +7801,59 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7865,27 +7865,27 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
@@ -7897,17 +7897,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,29 +7917,29 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7961,44 +7961,44 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8040,29 +8040,29 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8077,29 +8077,29 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,17 +8131,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8153,66 +8153,66 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,24 +8227,24 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,17 +8259,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8281,27 +8281,27 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -8313,17 +8313,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,39 +8333,39 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8377,66 +8377,66 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,17 +8451,17 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8473,27 +8473,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,39 +8525,39 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8569,66 +8569,66 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8643,17 +8643,17 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8665,27 +8665,27 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8697,17 +8697,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8717,39 +8717,39 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8761,66 +8761,66 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8835,17 +8835,17 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8857,27 +8857,27 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -8889,27 +8889,27 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8941,39 +8941,39 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8985,27 +8985,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9017,66 +9017,66 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9091,17 +9091,17 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9113,27 +9113,27 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9145,27 +9145,27 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9177,17 +9177,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,39 +9197,39 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9241,27 +9241,27 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9273,91 +9273,91 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9369,59 +9369,59 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9433,66 +9433,66 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9507,17 +9507,17 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9529,59 +9529,59 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9593,91 +9593,91 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9689,17 +9689,17 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -9709,14 +9709,14 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9731,56 +9731,56 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9805,29 +9805,29 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9837,29 +9837,29 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9869,29 +9869,29 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9901,24 +9901,24 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9933,14 +9933,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9972,7 +9972,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -10004,7 +10004,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10028,38 +10028,6 @@
         </is>
       </c>
       <c r="F300" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F300"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7321,17 +7321,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7341,24 +7341,24 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7385,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7400,29 +7400,29 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,44 +7464,44 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7513,27 +7513,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7545,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7577,17 +7577,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7597,39 +7597,39 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7641,34 +7641,34 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7737,27 +7737,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7769,59 +7769,59 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7833,27 +7833,27 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
@@ -7865,49 +7865,49 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7929,44 +7929,44 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -7993,12 +7993,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8013,24 +8013,24 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8040,34 +8040,34 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,14 +8077,14 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8099,17 +8099,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8121,66 +8121,66 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8195,24 +8195,24 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,17 +8227,17 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8249,27 +8249,27 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -8281,17 +8281,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,39 +8301,39 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8345,66 +8345,66 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8419,17 +8419,17 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8441,27 +8441,27 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8473,17 +8473,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8493,39 +8493,39 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8537,66 +8537,66 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8611,17 +8611,17 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8633,27 +8633,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8665,17 +8665,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,39 +8685,39 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8729,66 +8729,66 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8803,17 +8803,17 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8825,27 +8825,27 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -8857,27 +8857,27 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -8889,17 +8889,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,39 +8909,39 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8953,27 +8953,27 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -8985,66 +8985,66 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,17 +9059,17 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9081,27 +9081,27 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9113,27 +9113,27 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9145,17 +9145,17 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9165,39 +9165,39 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9209,27 +9209,27 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9241,91 +9241,91 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9337,59 +9337,59 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9401,66 +9401,66 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -9475,17 +9475,17 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9497,59 +9497,59 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9561,91 +9561,91 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9657,17 +9657,17 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9699,56 +9699,56 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9773,29 +9773,29 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9805,29 +9805,29 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -9837,29 +9837,29 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9869,24 +9869,24 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -9901,14 +9901,14 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9940,7 +9940,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9972,7 +9972,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -9996,38 +9996,6 @@
         </is>
       </c>
       <c r="F299" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -6132,22 +6132,22 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -6169,17 +6169,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -6189,71 +6189,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6297,27 +6297,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6344,76 +6344,76 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -6425,44 +6425,44 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -6477,24 +6477,24 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6509,24 +6509,24 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6541,61 +6541,61 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,24 +6605,24 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -6644,22 +6644,22 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,39 +6669,39 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
@@ -6713,91 +6713,91 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -6809,27 +6809,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6841,91 +6841,91 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -6937,76 +6937,76 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
@@ -7033,34 +7033,34 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -7092,7 +7092,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7124,49 +7124,49 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7193,76 +7193,76 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,12 +7272,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7289,44 +7289,44 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7336,29 +7336,29 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7368,19 +7368,19 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7405,14 +7405,14 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -7444,7 +7444,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -7476,49 +7476,49 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -7528,12 +7528,12 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7545,27 +7545,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7577,145 +7577,145 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,14 +7725,14 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -7747,17 +7747,17 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7769,34 +7769,34 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7828,32 +7828,32 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7865,49 +7865,49 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -7917,24 +7917,24 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7949,14 +7949,14 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7971,24 +7971,24 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -8013,14 +8013,14 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8045,93 +8045,93 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,14 +8141,14 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8173,29 +8173,29 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,29 +8205,29 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8237,61 +8237,61 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,61 +8333,61 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8397,29 +8397,29 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,46 +8429,46 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8483,24 +8483,24 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8515,135 +8515,135 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -8653,110 +8653,110 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8771,39 +8771,39 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8813,61 +8813,61 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -8877,142 +8877,142 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9027,103 +9027,103 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9133,174 +9133,174 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9332,103 +9332,103 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9443,56 +9443,56 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -9507,162 +9507,162 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -9677,14 +9677,14 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9716,7 +9716,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9731,24 +9731,24 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9773,14 +9773,14 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9805,61 +9805,61 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9869,46 +9869,46 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9923,39 +9923,39 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9965,37 +9965,581 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>天安@1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2026-05-02</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>天安@1026</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>天安@903</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
+      <c r="B316" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C316" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
+      <c r="D316" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F316"/>
+  <dimension ref="A1:F315"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6004,22 +6004,22 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2026-01-24</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>汤子妍</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6041,17 +6041,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -6073,27 +6073,27 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6105,49 +6105,49 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-01-25</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1118</t>
         </is>
       </c>
     </row>
@@ -6169,91 +6169,91 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1118</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6265,17 +6265,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6297,27 +6297,27 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6329,12 +6329,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6344,12 +6344,12 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6361,59 +6361,59 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6425,27 +6425,27 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
@@ -6457,34 +6457,34 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -6499,17 +6499,17 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -6521,76 +6521,76 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6605,29 +6605,29 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6649,17 +6649,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,14 +6669,14 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,7 +6701,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6713,12 +6713,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6745,17 +6745,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -6765,39 +6765,39 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6809,27 +6809,27 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6873,17 +6873,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,39 +6893,39 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6937,17 +6937,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,44 +6984,44 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -7033,27 +7033,27 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,29 +7080,29 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7112,12 +7112,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7144,44 +7144,44 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7193,27 +7193,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,44 +7240,44 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7289,27 +7289,27 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7336,19 +7336,19 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7373,24 +7373,24 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7400,12 +7400,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,29 +7432,29 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7496,44 +7496,44 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7545,27 +7545,27 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -7592,12 +7592,12 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7609,17 +7609,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -7629,39 +7629,39 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7673,34 +7673,34 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -7732,22 +7732,22 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7769,27 +7769,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7801,59 +7801,59 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7865,27 +7865,27 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
@@ -7897,59 +7897,59 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7961,44 +7961,44 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8045,24 +8045,24 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8077,46 +8077,46 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,17 +8131,17 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8153,27 +8153,27 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -8185,49 +8185,49 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8237,14 +8237,14 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,24 +8259,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,17 +8291,17 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8313,27 +8313,27 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -8345,17 +8345,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8377,49 +8377,49 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8441,66 +8441,66 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8515,17 +8515,17 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8537,17 +8537,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8569,27 +8569,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8601,17 +8601,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,39 +8621,39 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8665,66 +8665,66 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8739,17 +8739,17 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8761,17 +8761,17 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8793,27 +8793,27 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8825,17 +8825,17 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8845,39 +8845,39 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8889,91 +8889,91 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8985,17 +8985,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9017,27 +9017,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9049,27 +9049,27 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9081,17 +9081,17 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9101,39 +9101,39 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9145,27 +9145,27 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9177,91 +9177,91 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -9273,17 +9273,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9305,27 +9305,27 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9337,27 +9337,27 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9369,17 +9369,17 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9389,39 +9389,39 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9433,27 +9433,27 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9465,91 +9465,91 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9561,17 +9561,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9581,7 +9581,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -9593,59 +9593,59 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9657,66 +9657,66 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9731,17 +9731,17 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9753,17 +9753,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -9785,59 +9785,59 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9849,59 +9849,59 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -9913,44 +9913,44 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9977,17 +9977,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10009,17 +10009,17 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10029,29 +10029,29 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -10073,59 +10073,59 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10137,17 +10137,17 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10157,29 +10157,29 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10189,29 +10189,29 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10233,17 +10233,17 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10253,29 +10253,29 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10285,29 +10285,29 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10329,17 +10329,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10349,29 +10349,29 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -10393,17 +10393,17 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10413,29 +10413,29 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10445,14 +10445,14 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10484,7 +10484,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -10508,38 +10508,6 @@
         </is>
       </c>
       <c r="F315" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6196,32 +6196,32 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6233,17 +6233,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6265,27 +6265,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6297,12 +6297,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6329,59 +6329,59 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6393,27 +6393,27 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
@@ -6425,34 +6425,34 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -6489,76 +6489,76 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6573,29 +6573,29 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6617,17 +6617,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,14 +6637,14 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6713,17 +6713,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -6733,39 +6733,39 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1034</t>
         </is>
       </c>
     </row>
@@ -6777,27 +6777,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
@@ -6809,12 +6809,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6824,12 +6824,12 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6841,17 +6841,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,39 +6861,39 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>国金@2119</t>
         </is>
       </c>
     </row>
@@ -6905,17 +6905,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6937,12 +6937,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6952,44 +6952,44 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -7001,27 +7001,27 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7033,12 +7033,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7048,29 +7048,29 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7080,12 +7080,12 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7097,12 +7097,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7112,44 +7112,44 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7161,27 +7161,27 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,44 +7208,44 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7257,27 +7257,27 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7289,12 +7289,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7304,19 +7304,19 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7341,24 +7341,24 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7385,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7400,29 +7400,29 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,12 +7432,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7449,12 +7449,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,44 +7464,44 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7513,27 +7513,27 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7545,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7577,17 +7577,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -7597,39 +7597,39 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7641,34 +7641,34 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -7700,22 +7700,22 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -7737,27 +7737,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7769,59 +7769,59 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7833,27 +7833,27 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
@@ -7865,59 +7865,59 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7929,44 +7929,44 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -7993,12 +7993,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8013,24 +8013,24 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8045,46 +8045,46 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8099,17 +8099,17 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8121,27 +8121,27 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -8153,49 +8153,49 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,14 +8205,14 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-13</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,24 +8227,24 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,17 +8259,17 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8281,27 +8281,27 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -8313,17 +8313,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8345,49 +8345,49 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8409,66 +8409,66 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-20</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8483,17 +8483,17 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8505,17 +8505,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8537,27 +8537,27 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8569,17 +8569,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,39 +8589,39 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8633,66 +8633,66 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-27</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8707,17 +8707,17 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8729,17 +8729,17 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8761,27 +8761,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8813,39 +8813,39 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8857,91 +8857,91 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8953,17 +8953,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8985,27 +8985,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9017,27 +9017,27 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9049,17 +9049,17 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,39 +9069,39 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9113,27 +9113,27 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9145,91 +9145,91 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -9241,17 +9241,17 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9273,27 +9273,27 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9305,27 +9305,27 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9337,17 +9337,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9357,39 +9357,39 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9401,27 +9401,27 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9433,91 +9433,91 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9529,17 +9529,17 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -9561,59 +9561,59 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9625,66 +9625,66 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9699,17 +9699,17 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9721,17 +9721,17 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -9753,59 +9753,59 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9817,59 +9817,59 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>国金@2118</t>
         </is>
       </c>
     </row>
@@ -9881,44 +9881,44 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9945,17 +9945,17 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9977,17 +9977,17 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9997,29 +9997,29 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -10041,59 +10041,59 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10105,17 +10105,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10125,29 +10125,29 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10157,29 +10157,29 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10201,17 +10201,17 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10221,29 +10221,29 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10253,29 +10253,29 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10297,17 +10297,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10317,29 +10317,29 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -10361,17 +10361,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10381,29 +10381,29 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10413,14 +10413,14 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -10452,7 +10452,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -10476,38 +10476,6 @@
         </is>
       </c>
       <c r="F314" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F314"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6196,32 +6196,32 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-01-30</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@1022</t>
         </is>
       </c>
     </row>
@@ -6233,17 +6233,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1017</t>
         </is>
       </c>
     </row>
@@ -6265,27 +6265,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1021</t>
         </is>
       </c>
     </row>
@@ -6297,12 +6297,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6329,59 +6329,59 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-01-31</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -6585,17 +6585,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -6605,14 +6605,14 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6649,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,39 +6701,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-07</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
@@ -6745,27 +6745,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1034</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6777,44 +6777,44 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6824,34 +6824,34 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
@@ -6873,76 +6873,76 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>国金@2119</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6952,12 +6952,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -6969,34 +6969,34 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7028,7 +7028,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -7060,49 +7060,49 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7112,12 +7112,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7129,76 +7129,76 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7225,44 +7225,44 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7272,29 +7272,29 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7304,19 +7304,19 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7341,14 +7341,14 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7380,7 +7380,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -7412,49 +7412,49 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -7464,12 +7464,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7481,27 +7481,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7513,130 +7513,130 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7651,120 +7651,120 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -7796,7 +7796,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -7811,24 +7811,24 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -7843,34 +7843,34 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7885,56 +7885,56 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7949,110 +7949,110 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-06</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8067,24 +8067,24 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8141,14 +8141,14 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8163,39 +8163,39 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8205,14 +8205,14 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-13</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,248 +8227,248 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-20</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -8500,7 +8500,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8532,7 +8532,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8564,7 +8564,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8596,7 +8596,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -8660,39 +8660,39 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-27</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -8724,7 +8724,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -8739,24 +8739,24 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8781,14 +8781,14 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8820,7 +8820,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8852,71 +8852,71 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -8948,7 +8948,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -8980,7 +8980,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -9012,7 +9012,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -9044,7 +9044,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9108,7 +9108,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9140,7 +9140,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9165,14 +9165,14 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-10</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -9187,34 +9187,34 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -9229,78 +9229,78 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -9315,71 +9315,71 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9389,125 +9389,125 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9517,24 +9517,24 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9556,49 +9556,49 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9613,78 +9613,78 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9716,7 +9716,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9741,61 +9741,61 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9805,14 +9805,14 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -9827,24 +9827,24 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -9859,24 +9859,24 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>国金@2118</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9901,24 +9901,24 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9933,24 +9933,24 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9965,29 +9965,29 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9997,14 +9997,14 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10029,46 +10029,46 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10092,390 +10092,6 @@
         </is>
       </c>
       <c r="F302" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>2026-05-09</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>陆奕心</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>天安@1007</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>2026-05-10</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>袁芷澜</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>太阳城@416</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>2026-05-16</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>2026-05-16</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>陆奕心</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>天安@1007</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>2026-05-17</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>袁芷澜</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>太阳城@416</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>2026-05-23</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>天安@1027</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>2026-05-23</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>16:10:00</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>18:10:00</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>陆奕心</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>天安@1007</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>2026-05-30</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>2026-05-30</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>13:50:00</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>15:50:00</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>陆奕心</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>天安@1007</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>2026-06-06</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>2026-06-13</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F302"/>
+  <dimension ref="A1:F318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6233,27 +6233,27 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>天安@1017</t>
+          <t>天安@952</t>
         </is>
       </c>
     </row>
@@ -6265,27 +6265,27 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>天安@1021</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -6297,113 +6297,113 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>天安@952</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-01</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1123</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>吴雨泽</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -6413,14 +6413,14 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-03</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -6435,17 +6435,17 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>天安@1123</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -6457,76 +6457,76 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -6541,24 +6541,24 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -6580,17 +6580,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2026-02-06</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@1121</t>
         </is>
       </c>
     </row>
@@ -6713,27 +6713,27 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -6760,12 +6760,12 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
@@ -6777,17 +6777,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -6797,39 +6797,39 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6873,59 +6873,59 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
@@ -6937,27 +6937,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,29 +6984,29 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7033,12 +7033,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7048,44 +7048,44 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7097,27 +7097,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7144,44 +7144,44 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
@@ -7193,27 +7193,27 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7225,12 +7225,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,19 +7240,19 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -7277,24 +7277,24 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7304,12 +7304,12 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7336,29 +7336,29 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7385,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -7400,44 +7400,44 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7449,27 +7449,27 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7513,17 +7513,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7533,39 +7533,39 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7577,34 +7577,34 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -7636,7 +7636,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7651,17 +7651,17 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7673,59 +7673,59 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7737,27 +7737,27 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7769,59 +7769,59 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -7833,44 +7833,44 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -7917,24 +7917,24 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -7949,39 +7949,39 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -7993,27 +7993,27 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8025,49 +8025,49 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8077,14 +8077,14 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8099,7 +8099,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8109,14 +8109,14 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -8153,27 +8153,27 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8185,66 +8185,66 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -8259,24 +8259,24 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,49 +8323,49 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -8377,34 +8377,34 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,157 +8429,157 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,93 +8589,93 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,29 +8685,29 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8717,61 +8717,61 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,157 +8781,157 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8941,93 +8941,93 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9037,78 +9037,78 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9140,7 +9140,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9165,29 +9165,29 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,29 +9197,29 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9229,110 +9229,110 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9357,14 +9357,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9379,135 +9379,135 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9517,24 +9517,24 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9556,49 +9556,49 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -9613,46 +9613,46 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9684,7 +9684,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9716,7 +9716,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9741,61 +9741,61 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -9805,78 +9805,78 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9901,24 +9901,24 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -9933,24 +9933,24 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -9965,29 +9965,29 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -9997,14 +9997,14 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10029,69 +10029,581 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>天安@903</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2026-05-24</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
+      <c r="B318" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C318" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
+      <c r="D318" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -6388,7 +6388,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-02</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F318"/>
+  <dimension ref="A1:F338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6452,49 +6452,49 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-04</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@937</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2026-02-04</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -6509,39 +6509,39 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>天安@937</t>
+          <t>天安@1125</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2026-02-05</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>高尹</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>天安@1125</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
@@ -6585,27 +6585,27 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>程子萌</t>
+          <t>袁浩洋</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>天安@1121</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -6617,17 +6617,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -6637,7 +6637,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>天安@1003</t>
+          <t>天安@1121</t>
         </is>
       </c>
     </row>
@@ -6649,12 +6649,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1003</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -6701,39 +6701,39 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -6745,27 +6745,27 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>天安@1056</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -6777,27 +6777,27 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@956</t>
         </is>
       </c>
     </row>
@@ -6809,44 +6809,44 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1056</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6856,34 +6856,34 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -6905,34 +6905,34 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>高尹</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -6957,14 +6957,14 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -6989,14 +6989,14 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -7021,78 +7021,78 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>高尹</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -7117,14 +7117,14 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -7156,7 +7156,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -7188,49 +7188,49 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7240,83 +7240,83 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@956</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -7348,7 +7348,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -7373,56 +7373,56 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,51 +7432,51 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -7491,24 +7491,24 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁浩洋</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -7533,110 +7533,110 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -7668,81 +7668,81 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -7764,22 +7764,22 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7789,29 +7789,29 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -7821,78 +7821,78 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -7907,56 +7907,56 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7971,56 +7971,56 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -8035,24 +8035,24 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -8067,56 +8067,56 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,7 +8131,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8141,46 +8141,46 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -8195,24 +8195,24 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -8227,56 +8227,56 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -8333,61 +8333,61 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -8397,61 +8397,61 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -8461,56 +8461,56 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -8525,157 +8525,157 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,125 +8685,125 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -8813,29 +8813,29 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -8845,14 +8845,14 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8867,39 +8867,39 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,142 +8909,142 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,14 +9069,14 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9091,24 +9091,24 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9123,24 +9123,24 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9155,39 +9155,39 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,142 +9197,142 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9357,14 +9357,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9379,24 +9379,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9411,24 +9411,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9443,39 +9443,39 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9485,78 +9485,78 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -9571,39 +9571,39 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -9613,248 +9613,248 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -9869,29 +9869,29 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -9901,14 +9901,14 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9933,14 +9933,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -9965,46 +9965,46 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -10029,14 +10029,14 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -10068,7 +10068,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -10100,22 +10100,22 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10125,29 +10125,29 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10157,29 +10157,29 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -10189,93 +10189,93 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -10285,78 +10285,78 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10381,29 +10381,29 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10413,56 +10413,56 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -10477,29 +10477,29 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10509,29 +10509,29 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10541,14 +10541,14 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10573,37 +10573,677 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2026-05-03</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>司凝</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>AP微积分</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>天安@903</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>天安@904</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2026-05-09</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2026-05-10</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>天安@904</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2026-05-16</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>袁芷澜</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>太阳城@416</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2026-05-17</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>天安@1119</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2026-05-24</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
+      <c r="B338" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
+      <c r="C338" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
+      <c r="D338" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F338"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7481,22 +7481,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>袁浩洋</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7513,17 +7513,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁浩洋</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7533,24 +7533,24 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -7560,12 +7560,12 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
@@ -7577,76 +7577,76 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1121</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1110</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7673,91 +7673,91 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1110</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7769,27 +7769,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
@@ -7801,27 +7801,27 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7833,130 +7833,130 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7971,71 +7971,71 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8045,46 +8045,46 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -8116,7 +8116,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -8131,24 +8131,24 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -8163,34 +8163,34 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8205,56 +8205,56 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -8269,29 +8269,29 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -8301,14 +8301,14 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -8323,24 +8323,24 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -8355,135 +8355,135 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8493,125 +8493,125 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,125 +8621,125 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,14 +8749,14 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,14 +8781,14 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8803,24 +8803,24 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -8835,24 +8835,24 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -8867,39 +8867,39 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,61 +8909,61 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -8973,78 +8973,78 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9069,14 +9069,14 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -9091,24 +9091,24 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -9123,24 +9123,24 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -9155,39 +9155,39 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,61 +9197,61 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9261,78 +9261,78 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9357,14 +9357,14 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -9379,24 +9379,24 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -9411,24 +9411,24 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -9443,39 +9443,39 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9485,56 +9485,56 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -9556,71 +9556,71 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -9645,14 +9645,14 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -9667,24 +9667,24 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -9699,24 +9699,24 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -9731,39 +9731,39 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9773,56 +9773,56 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -9844,71 +9844,71 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -9933,14 +9933,14 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -9955,167 +9955,167 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10125,29 +10125,29 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -10157,61 +10157,61 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1028</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10221,29 +10221,29 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10253,110 +10253,110 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -10388,17 +10388,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -10413,61 +10413,61 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10477,93 +10477,93 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10573,78 +10573,78 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -10676,7 +10676,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10733,24 +10733,24 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -10765,46 +10765,46 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -10819,7 +10819,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10829,14 +10829,14 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -10851,24 +10851,24 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -10883,39 +10883,39 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10925,61 +10925,61 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10989,29 +10989,29 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>天安@1119</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11021,88 +11021,88 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -11117,24 +11117,24 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -11156,7 +11156,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -11181,69 +11181,325 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>金明珺</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>天安@1119</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>天安@1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2026-05-23</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>16:10:00</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>18:10:00</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2026-05-24</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>许宸铭</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>AP计算机</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>国金@2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2026-05-30</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>13:50:00</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>15:50:00</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>陆奕心</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>天安@1007</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2026-06-06</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2026-06-13</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>10:20:00</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>12:20:00</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>吴子墨</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>天安@1025</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
           <t>2026-06-20</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
+      <c r="B346" t="inlineStr">
         <is>
           <t>10:20:00</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>12:20:00</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>吴子墨</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>A-LEVEL数学</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6868,32 +6868,32 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2026-02-08</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>高尹</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
@@ -6905,17 +6905,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>高尹</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1130</t>
         </is>
       </c>
     </row>
@@ -6937,27 +6937,27 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>天安@1130</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
@@ -6969,12 +6969,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>天安@1111</t>
         </is>
       </c>
     </row>
@@ -7001,59 +7001,59 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陶玺泽</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AMC</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>天安@1111</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>陶玺泽</t>
+          <t>高尹</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
@@ -7065,17 +7065,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>高尹</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@1029</t>
         </is>
       </c>
     </row>
@@ -7097,27 +7097,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>天安@1029</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7144,29 +7144,29 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7176,12 +7176,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7193,12 +7193,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7208,44 +7208,44 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2026-02-12</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@956</t>
         </is>
       </c>
     </row>
@@ -7257,17 +7257,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>天安@956</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -7289,27 +7289,27 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7336,44 +7336,44 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@907</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>天安@907</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7385,27 +7385,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7417,12 +7417,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -7432,44 +7432,44 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2026-02-14</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
@@ -7481,22 +7481,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>袁浩洋</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7513,17 +7513,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>袁浩洋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -7533,39 +7533,39 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1109</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2026-02-15</t>
+          <t>2026-02-21</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>天安@1109</t>
+          <t>天安@1121</t>
         </is>
       </c>
     </row>
@@ -7577,27 +7577,27 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>天安@1121</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7609,12 +7609,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -7624,44 +7624,44 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2026-02-21</t>
+          <t>2026-02-22</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
@@ -7673,27 +7673,27 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>天安@1110</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7705,12 +7705,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -7720,44 +7720,44 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2026-02-22</t>
+          <t>2026-02-24</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@1110</t>
         </is>
       </c>
     </row>
@@ -7769,17 +7769,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>天安@1110</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7801,27 +7801,27 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -7848,12 +7848,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1104</t>
         </is>
       </c>
     </row>
@@ -7865,17 +7865,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -7885,39 +7885,39 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>天安@1104</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2026-02-24</t>
+          <t>2026-02-25</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -7929,34 +7929,34 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2026-02-25</t>
+          <t>2026-02-26</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -7988,32 +7988,32 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2026-02-26</t>
+          <t>2026-02-27</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1129</t>
         </is>
       </c>
     </row>
@@ -8025,17 +8025,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>天安@1129</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8057,59 +8057,59 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2026-02-27</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -8121,27 +8121,27 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@940</t>
         </is>
       </c>
     </row>
@@ -8153,59 +8153,59 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>天安@940</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-03-01</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -8217,27 +8217,27 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@946</t>
         </is>
       </c>
     </row>
@@ -8249,59 +8249,59 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>天安@946</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1016</t>
         </is>
       </c>
     </row>
@@ -8313,12 +8313,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -8333,24 +8333,24 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>天安@1016</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-03</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -8365,39 +8365,39 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8409,27 +8409,27 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
@@ -8441,27 +8441,27 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8473,17 +8473,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -8493,29 +8493,29 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8537,27 +8537,27 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -8569,49 +8569,49 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
@@ -8633,27 +8633,27 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
@@ -8665,17 +8665,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8697,49 +8697,49 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -8761,27 +8761,27 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -8793,27 +8793,27 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
@@ -8825,59 +8825,59 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -8889,17 +8889,17 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -8921,17 +8921,17 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -8953,27 +8953,27 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -8985,17 +8985,17 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9005,39 +9005,39 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9049,27 +9049,27 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -9081,27 +9081,27 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
@@ -9113,59 +9113,59 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -9177,17 +9177,17 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9197,7 +9197,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9209,17 +9209,17 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -9241,27 +9241,27 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
@@ -9273,17 +9273,17 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9293,39 +9293,39 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-29</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9337,27 +9337,27 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -9369,27 +9369,27 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
@@ -9401,59 +9401,59 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -9465,17 +9465,17 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9497,27 +9497,27 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9529,27 +9529,27 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9561,17 +9561,17 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9581,39 +9581,39 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9625,27 +9625,27 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -9657,27 +9657,27 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9689,59 +9689,59 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -9753,17 +9753,17 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -9785,27 +9785,27 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9817,27 +9817,27 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -9849,17 +9849,17 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -9869,39 +9869,39 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -9913,27 +9913,27 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -9945,27 +9945,27 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>薛天泽</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1132</t>
         </is>
       </c>
     </row>
@@ -9977,59 +9977,59 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>天安@1132</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-18</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
@@ -10041,17 +10041,17 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10073,17 +10073,17 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -10105,17 +10105,17 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1028</t>
         </is>
       </c>
     </row>
@@ -10137,59 +10137,59 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>天安@1028</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -10201,27 +10201,27 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -10233,59 +10233,59 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2026-04-19</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -10297,17 +10297,17 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10329,17 +10329,17 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -10361,17 +10361,17 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@948</t>
         </is>
       </c>
     </row>
@@ -10393,59 +10393,59 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>天安@948</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -10457,27 +10457,27 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -10489,27 +10489,27 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
@@ -10521,44 +10521,44 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-05-01</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -10585,17 +10585,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10605,29 +10605,29 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2026-05-02</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -10649,17 +10649,17 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1010</t>
         </is>
       </c>
     </row>
@@ -10681,17 +10681,17 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>天安@1010</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10713,17 +10713,17 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10733,29 +10733,29 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1026</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2026-05-03</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>天安@1026</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -10777,17 +10777,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
@@ -10809,27 +10809,27 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
@@ -10841,59 +10841,59 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2026-05-03</t>
+          <t>2026-05-09</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>天安@903</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -10905,17 +10905,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -10937,17 +10937,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10957,29 +10957,29 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2026-05-09</t>
+          <t>2026-05-10</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -11001,59 +11001,59 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2026-05-10</t>
+          <t>2026-05-16</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
@@ -11065,17 +11065,17 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -11097,17 +11097,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11117,29 +11117,29 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2026-05-16</t>
+          <t>2026-05-17</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
@@ -11161,59 +11161,59 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2026-05-17</t>
+          <t>2026-05-23</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1119</t>
         </is>
       </c>
     </row>
@@ -11225,17 +11225,17 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>天安@1119</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
@@ -11257,17 +11257,17 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -11277,71 +11277,71 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2026-05-23</t>
+          <t>2026-05-24</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2026-05-24</t>
+          <t>2026-05-30</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
@@ -11353,17 +11353,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11373,29 +11373,29 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2026-05-30</t>
+          <t>2026-06-06</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11405,14 +11405,14 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2026-06-06</t>
+          <t>2026-06-13</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -11444,7 +11444,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2026-06-13</t>
+          <t>2026-06-20</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -11468,38 +11468,6 @@
         </is>
       </c>
       <c r="F345" t="inlineStr">
-        <is>
-          <t>天安@1025</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>2026-06-20</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>10:20:00</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>12:20:00</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>吴子墨</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>A-LEVEL数学</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
         <is>
           <t>天安@1025</t>
         </is>

--- a/彼岸课程.xlsx
+++ b/彼岸课程.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8340,86 +8340,86 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2026-03-04</t>
+          <t>2026-03-03</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-04</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -8429,14 +8429,14 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>天安@1065</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-05</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -8451,56 +8451,56 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2026-03-07</t>
+          <t>2026-03-06</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>杨涵予</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>天安@939</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -8525,14 +8525,14 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -8557,14 +8557,14 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@1065</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2026-03-08</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -8589,29 +8589,29 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-07</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>管子栋</t>
+          <t>杨涵予</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -8621,61 +8621,61 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>太阳城@415</t>
+          <t>天安@939</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>天安@1064</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -8685,29 +8685,29 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2026-03-14</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -8717,61 +8717,61 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>天安@1039</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-08</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-10</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -8781,14 +8781,14 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-11</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -8803,130 +8803,130 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>程子萌</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@903</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2026-03-15</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>管子栋</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>太阳城@415</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1064</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>天安@1025</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-14</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -8941,61 +8941,61 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1039</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2026-03-21</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9005,29 +9005,29 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9037,56 +9037,56 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-15</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9101,61 +9101,61 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2026-03-22</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1025</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>金明珺</t>
+          <t>陆奕心</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9165,125 +9165,125 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>天安@1068</t>
+          <t>天安@1007</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-21</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>陆奕心</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>天安@1007</t>
+          <t>天安@1058</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>郑煦翔</t>
+          <t>袁芷澜</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>天安@906</t>
+          <t>太阳城@416</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2026-03-28</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>班课</t>
+          <t>许宸铭</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9293,29 +9293,29 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>天安@1058</t>
+          <t>国金@2108</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>袁芷澜</t>
+          <t>金明珺</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9325,56 +9325,56 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>太阳城@416</t>
+          <t>国金@2105</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-22</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>许宸铭</t>
+          <t>司凝</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>AP计算机</t>
+          <t>AP微积分</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>国金@2108</t>
+          <t>天安@904</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -9389,56 +9389,56 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>国金@2105</t>
+          <t>天安@1068</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2026-03-29</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>10:20:00</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>12:20:00</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>司凝</t>
+          <t>吴子墨</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>AP微积分</t>
+          <t>A-LEVEL数学</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>天安@904</t>
+          <t>天安@1027</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>15:50:00</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -9460,118 +9460,118 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10:20:00</t>
+          <t>16:10:00</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>12:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>吴子墨</t>
+          <t>郑煦翔</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>A-LEVEL数学</t>
+          <t>AP计算机</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>天安@1027</t>
+          <t>天安@906</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-03-28</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>15:50:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>薛天泽</t>
+          <t>班课</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-        